--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_10.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_10.xlsx
@@ -483,318 +483,322 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_231</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2</v>
+        <v>0.1087570621468927</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['Bb', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18)]</t>
+          <t>[(9.236303, 12.162018)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[(16.749659, 21.811609)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>[['C:7', 'F:min', 'C:maj'], ['F:maj', 'A#:maj', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(134.22, 139.56)]</t>
+          <t>[(12.66, 17.1), (105.0, 108.24), (0.78, 5.26)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[(33.84, 36.48), (69.36, 73.2), (8.54, 14.08)]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1106719367588933</v>
+        <v>0.03263106320431161</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['Eb', 'F:min7', 'Bb:7'], ['F:min7', 'Bb:7', 'Eb'], ['Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/5']]</t>
+          <t>[['G:maj/D', 'A:min7/C', 'D:7'], ['A:min7/C', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(2.36, 5.68)]</t>
+          <t>[(10.7, 14.24), (8.35, 10.7), (8.94, 11.88)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(84.323, 87.713)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>[(73.16, 77.72), (74.2, 81.18), (6.98, 13.38)]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.09859913793103448</v>
+        <v>0.2554347826086957</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab:maj', 'Eb/3']]</t>
+          <t>[['C', 'G/3', 'C', 'G/3', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(26.006, 29.321)]</t>
+          <t>[(130.148, 132.444)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(55.002834, 59.124376)]</t>
+          <t>[(11.86, 15.88)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>isophonics_232</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_139</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2316176470588235</v>
+        <v>0.2163742690058479</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>[['C', 'F', 'G', 'A']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['G', 'C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
+          <t>[(23.725555, 34.801473)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(52.74, 60.86)]</t>
+          <t>[(50.506553, 57.05458)]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
+          <t>isophonics_255</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1205479452054795</v>
+        <v>0.08684863523573201</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'E/5']]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Ab']]</t>
+          <t>[['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(59.907505, 63.843287)]</t>
+          <t>[(27.789047, 31.109501)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(118.0, 121.03)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[(27.36, 34.92)]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.1669565217391304</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A'], ['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['Eb', 'Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(64.08, 70.34)]</t>
+          <t>[(16.2, 19.54), (17.94, 20.7)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(43.14, 60.24)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[(4.83, 12.97), (2.77, 10.94)]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>isophonics_49</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>isophonics_220</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3238636363636364</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['G', 'G', 'G']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['D', 'D', 'D/7']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(81.42, 90.04)]</t>
+          <t>[(20.940758, 23.936132)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(16.3, 19.52)]</t>
+          <t>[(0.325509, 3.175895)]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -803,289 +807,265 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[(45.58, 53.44)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(61.3, 70.46)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[(7.4, 18.96)]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_73</t>
+          <t>isophonics_273</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0485006518904824</v>
+        <v>0.1704545454545455</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>[['E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'B:min', 'E:min']]</t>
+          <t>[['C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(10.06, 15.62)]</t>
+          <t>[(12.921927, 21.908049)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(6.949138, 11.546689)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[(20.801, 27.165)]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2202898550724638</v>
+        <v>0.2589285714285714</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[(81.28, 89.42)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[(42.52, 46.36)]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0572717806317251</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'D:min', 'D:min/A']]</t>
+          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.06, 6.451609)]</t>
+          <t>[(24.76, 32.42), (13.98, 21.5)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(31.16, 45.84)]</t>
+          <t>[(25.62, 33.76), (47.68, 51.98)]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.08233082706766917</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G', 'F', 'C/3'], ['G/3', 'G', 'C']]</t>
+          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:min/D', 'D:7', 'G:min'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'G', 'D'], ['A', 'A', 'D']]</t>
+          <t>[['Db', 'Ab', 'Db:maj6/2'], ['F:min', 'C:7', 'F:min'], ['Ab', 'Db/5', 'Ab']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(45.670113, 48.251979), (5.894331, 9.748843)]</t>
+          <t>[(66.02, 68.98), (42.44, 44.36), (18.12, 24.54)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.645256, 11.062412), (14.448702, 17.908476)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[(63.858, 80.628), (17.833, 21.409), (0.243, 9.12)]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.06554054054054054</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['C', 'C/G', 'G:7']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['Eb', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(65.28, 71.0)]</t>
+          <t>[(282.12, 284.72)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(42.08, 57.88)]</t>
+          <t>[(33.48, 42.01)]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>isophonics_168</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.07480106100795755</v>
+        <v>0.06474358974358974</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['G', 'E:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[(10.96, 17.02)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(15.78, 21.28)]</t>
+          <t>[(37.99288, 42.009932)]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1098,39 +1078,43 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1988636363636364</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(11.86, 13.9)]</t>
+          <t>[(63.84, 65.24), (62.2, 64.4)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(32.233898, 36.959159)]</t>
+          <t>[(43.54, 60.0), (127.6, 132.4)]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_10.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1087570621468927</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5052631578947369</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'C']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(9.236303, 12.162018)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(16.749659, 21.811609)]</t>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>[('0:00:06.357029', '0:00:26.140430')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:maj', 'A#:maj', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2592592592592592</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(12.66, 17.1), (105.0, 108.24), (0.78, 5.26)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(33.84, 36.48), (69.36, 73.2), (8.54, 14.08)]</t>
+          <t>[('0:00:01.150000', '0:00:07.605000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:02:03.220000', '0:02:07.580000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.03263106320431161</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Eb', 'F:min7', 'Bb:7'], ['F:min7', 'Bb:7', 'Eb'], ['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1503759398496241</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7'], ['A:min7/C', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(10.7, 14.24), (8.35, 10.7), (8.94, 11.88)]</t>
+          <t>[['E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(73.16, 77.72), (74.2, 81.18), (6.98, 13.38)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:02.560000', '0:00:21.440000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:01.480839', '0:00:06.357029')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2554347826086957</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C', 'G/3', 'C', 'G/3', 'C', 'G/3']]</t>
-        </is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_296</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09529211571185479</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>[['F', 'Bb', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(130.148, 132.444)]</t>
+          <t>[['G:maj', 'C:maj', 'G/3', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(11.86, 15.88)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:02.530000', '0:01:08.090000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:39.093000', '0:00:43.498000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2163742690058479</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'G', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1261904761904762</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D', 'G']]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(23.725555, 34.801473)]</t>
+          <t>[['Ab', 'Db/5', 'Ab']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(50.506553, 57.05458)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
+          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>jaah_25</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1063218390804598</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(27.36, 34.92)]</t>
+          <t>[('0:00:48.250000', '0:00:53.910000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:06.740000', '0:00:08.900000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_1</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1669565217391304</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A'], ['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(16.2, 19.54), (17.94, 20.7)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(4.83, 12.97), (2.77, 10.94)]</t>
+          <t>[('0:00:24.860000', '0:00:45.460000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_220</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2476190476190476</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'D/7']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(20.940758, 23.936132)]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.325509, 3.175895)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3095238095238095</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(45.58, 53.44)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(7.4, 18.96)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:01.640000', '0:00:10.360000'), ('0:00:57.480000', '0:01:04.580000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1704545454545455</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>isophonics_175</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5444444444444444</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>[['C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.921927, 21.908049)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(20.801, 27.165)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:43.520929', '0:01:49.476848')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2589285714285714</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(81.28, 89.42)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(42.52, 46.36)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(24.76, 32.42), (13.98, 21.5)]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(25.62, 33.76), (47.68, 51.98)]</t>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06593406593406594</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:min/D', 'D:7', 'G:min'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db:maj6/2'], ['F:min', 'C:7', 'F:min'], ['Ab', 'Db/5', 'Ab']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(66.02, 68.98), (42.44, 44.36), (18.12, 24.54)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(63.858, 80.628), (17.833, 21.409), (0.243, 9.12)]</t>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_69</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06554054054054054</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C', 'C/G', 'G:7']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Bb:7']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(282.12, 284.72)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(33.48, 42.01)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:10.340000', '0:01:17.220000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06474358974358974</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A:min']]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(10.96, 17.02)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(37.99288, 42.009932)]</t>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_199</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(63.84, 65.24), (62.2, 64.4)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(43.54, 60.0), (127.6, 132.4)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
